--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_4_41.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77148.94917169274</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77148.94917169274</v>
+        <v>5151068.340509112</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1111207759.8141</v>
+        <v>40336821.51591666</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11294.59728007071</v>
+        <v>882064.8375164319</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>22199.51851469899</v>
+        <v>1696178.647655654</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33092.88478203167</v>
+        <v>2510292.457794875</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>44221.17522158969</v>
+        <v>3323590.29649918</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>55349.46566114771</v>
+        <v>4136888.135203486</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>66477.7424731452</v>
+        <v>4950185.973907792</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>77606.02949033464</v>
+        <v>5763483.812612092</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>88734.25839430807</v>
+        <v>6576781.651316393</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>99862.54883386609</v>
+        <v>7390079.490020694</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>110990.8392734241</v>
+        <v>8203377.328724995</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>122119.1297129821</v>
+        <v>9016675.167429296</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>133247.4167301716</v>
+        <v>9829973.006133601</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>144375.7071697296</v>
+        <v>10643270.84483792</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>155503.9976092876</v>
+        <v>11456568.68354223</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>166632.2880488458</v>
+        <v>12269866.52224654</v>
       </c>
     </row>
   </sheetData>
